--- a/biology/Biochimie/Rétinal/Rétinal.xlsx
+++ b/biology/Biochimie/Rétinal/Rétinal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9tinal</t>
+          <t>Rétinal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le rétinal, appelé aussi rétinaldéhyde, est l'une des trois formes de la vitamine A. Le rétinal est un aldéhyde polyinsaturé capable d'absorber la lumière et qui présente une couleur orangée. Il se lie à des protéines, les opsines, et constitue la base moléculaire de la vision.
